--- a/final_data_pipeline/output/311513longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311513longform_elec_options.xlsx
@@ -792,7 +792,7 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -813,10 +813,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R5">
-        <v>1.741590909090909</v>
+        <v>1.782371783972741</v>
       </c>
       <c r="S5">
-        <v>1.89075</v>
+        <v>1.939565227172176</v>
       </c>
       <c r="T5">
         <v>88.16435845162285</v>
@@ -851,7 +851,7 @@
         <v>48</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -866,10 +866,10 @@
         <v>213748.6649440405</v>
       </c>
       <c r="R6">
-        <v>1.741590909090909</v>
+        <v>1.782371783972741</v>
       </c>
       <c r="S6">
-        <v>1.89075</v>
+        <v>1.939565227172176</v>
       </c>
       <c r="T6">
         <v>26.71858311800506</v>
@@ -910,7 +910,7 @@
         <v>45</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -931,10 +931,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R7">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S7">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T7">
         <v>38.58905545096399</v>
@@ -969,7 +969,7 @@
         <v>48</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -984,10 +984,10 @@
         <v>93556.61663007623</v>
       </c>
       <c r="R8">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S8">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T8">
         <v>11.69457707875953</v>
@@ -1028,7 +1028,7 @@
         <v>45</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1049,10 +1049,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R9">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="S9">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="T9">
         <v>44.5681563636969</v>
@@ -1087,7 +1087,7 @@
         <v>48</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1102,10 +1102,10 @@
         <v>108052.5519502842</v>
       </c>
       <c r="R10">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="S10">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="T10">
         <v>13.50656899378552</v>
@@ -1140,7 +1140,7 @@
         <v>49</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1187,7 +1187,7 @@
         <v>49</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1234,7 +1234,7 @@
         <v>48</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1249,10 +1249,10 @@
         <v>352052.7507557416</v>
       </c>
       <c r="R13">
-        <v>1.741590909090909</v>
+        <v>1.784885911058073</v>
       </c>
       <c r="S13">
-        <v>1.89075</v>
+        <v>1.942582169301264</v>
       </c>
       <c r="T13">
         <v>44.0065938444677</v>
@@ -1293,7 +1293,7 @@
         <v>45</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1314,10 +1314,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R14">
-        <v>1.741590909090909</v>
+        <v>1.784885911058073</v>
       </c>
       <c r="S14">
-        <v>1.89075</v>
+        <v>1.942582169301264</v>
       </c>
       <c r="T14">
         <v>145.2102866683866</v>
@@ -1476,7 +1476,7 @@
         <v>45</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1497,10 +1497,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R17">
-        <v>1.741590909090909</v>
+        <v>1.554711451758341</v>
       </c>
       <c r="S17">
-        <v>1.89075</v>
+        <v>1.669946025515211</v>
       </c>
       <c r="T17">
         <v>60.78420277853312</v>
@@ -1535,7 +1535,7 @@
         <v>48</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1550,10 +1550,10 @@
         <v>147367.2856217573</v>
       </c>
       <c r="R18">
-        <v>1.741590909090909</v>
+        <v>1.554711451758341</v>
       </c>
       <c r="S18">
-        <v>1.89075</v>
+        <v>1.669946025515211</v>
       </c>
       <c r="T18">
         <v>18.42091070271966</v>
@@ -1924,7 +1924,7 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L25">
         <v>8000</v>
@@ -1945,10 +1945,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R25">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="S25">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="T25">
         <v>61.18327185979957</v>
@@ -1983,7 +1983,7 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -1998,10 +1998,10 @@
         <v>148334.8022559077</v>
       </c>
       <c r="R26">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="S26">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="T26">
         <v>18.54185028198846</v>
@@ -2036,7 +2036,7 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -2051,10 +2051,10 @@
         <v>142207.0801410656</v>
       </c>
       <c r="R27">
-        <v>1.741590909090909</v>
+        <v>1.929056920423291</v>
       </c>
       <c r="S27">
-        <v>1.89075</v>
+        <v>2.117059768804106</v>
       </c>
       <c r="T27">
         <v>17.7758850176332</v>
@@ -2089,7 +2089,7 @@
         <v>49</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2142,7 +2142,7 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2163,10 +2163,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R29">
-        <v>1.741590909090909</v>
+        <v>1.929056920423291</v>
       </c>
       <c r="S29">
-        <v>1.89075</v>
+        <v>2.117059768804106</v>
       </c>
       <c r="T29">
         <v>58.655786183263</v>
@@ -2201,7 +2201,7 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L30">
         <v>8000</v>
@@ -2216,10 +2216,10 @@
         <v>78453.85120309671</v>
       </c>
       <c r="R30">
-        <v>1.741590909090909</v>
+        <v>1.8239809580482</v>
       </c>
       <c r="S30">
-        <v>1.89075</v>
+        <v>1.989608681354817</v>
       </c>
       <c r="T30">
         <v>9.806731400387088</v>
@@ -2260,7 +2260,7 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2281,10 +2281,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R31">
-        <v>1.741590909090909</v>
+        <v>1.8239809580482</v>
       </c>
       <c r="S31">
-        <v>1.89075</v>
+        <v>1.989608681354817</v>
       </c>
       <c r="T31">
         <v>32.35965689512461</v>
@@ -2319,7 +2319,7 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L32">
         <v>8000</v>
@@ -2334,10 +2334,10 @@
         <v>106751.9041361638</v>
       </c>
       <c r="R32">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="S32">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="T32">
         <v>13.34398801702047</v>
@@ -2378,7 +2378,7 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L33">
         <v>8000</v>
@@ -2399,10 +2399,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R33">
-        <v>1.741590909090909</v>
+        <v>1.62249843161857</v>
       </c>
       <c r="S33">
-        <v>1.89075</v>
+        <v>1.749494516792324</v>
       </c>
       <c r="T33">
         <v>44.03168152707767</v>
@@ -2443,7 +2443,7 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="L34">
         <v>8000</v>
@@ -2464,10 +2464,10 @@
         <v>2.908846153846154</v>
       </c>
       <c r="R34">
-        <v>1.741590909090909</v>
+        <v>1.554711451758341</v>
       </c>
       <c r="S34">
-        <v>1.89075</v>
+        <v>1.669946025515211</v>
       </c>
       <c r="T34">
         <v>54.10983741284793</v>
@@ -2502,7 +2502,7 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="L35">
         <v>8000</v>
@@ -2549,7 +2549,7 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="L36">
         <v>8000</v>
@@ -2564,10 +2564,10 @@
         <v>131185.7275486412</v>
       </c>
       <c r="R36">
-        <v>1.741590909090909</v>
+        <v>1.554711451758341</v>
       </c>
       <c r="S36">
-        <v>1.89075</v>
+        <v>1.669946025515211</v>
       </c>
       <c r="T36">
         <v>16.39821594358015</v>
